--- a/banhang24/Template/ExportExcel/Report/BaoCaoGoiDichVu/Teamplate_BaoCaoTongHopSoDuGoiDichVu.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoGoiDichVu/Teamplate_BaoCaoTongHopSoDuGoiDichVu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Tổng cộng:</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>Giá vốn</t>
+  </si>
+  <si>
+    <t>Giảm giá HĐ</t>
+  </si>
+  <si>
+    <t>Giá trị sử dụng</t>
+  </si>
+  <si>
+    <t>Giá trị còn lại</t>
+  </si>
+  <si>
+    <t>Giá trị bán</t>
   </si>
 </sst>
 </file>
@@ -602,11 +614,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,18 +629,18 @@
     <col min="4" max="4" width="34.28515625" style="5" customWidth="1"/>
     <col min="5" max="6" width="23.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="16" style="22" customWidth="1"/>
-    <col min="8" max="8" width="9" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="18" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" style="5" customWidth="1"/>
-    <col min="10" max="13" width="16.7109375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="8" customWidth="1"/>
-    <col min="15" max="16" width="16.7109375" style="8" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" style="15" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" style="8" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="15" width="16.7109375" style="8" customWidth="1"/>
+    <col min="16" max="17" width="17.42578125" style="8" customWidth="1"/>
+    <col min="18" max="20" width="16.7109375" style="8" customWidth="1"/>
+    <col min="21" max="22" width="16.7109375" style="15" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -651,9 +663,13 @@
       <c r="R1" s="23"/>
       <c r="S1" s="23"/>
       <c r="T1" s="23"/>
-      <c r="U1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="3"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -674,8 +690,12 @@
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="14"/>
       <c r="C3" s="17"/>
@@ -685,7 +705,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:21" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -720,34 +740,46 @@
         <v>7</v>
       </c>
       <c r="L4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="T4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="V4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="W4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="13"/>
       <c r="C5" s="2"/>
@@ -764,12 +796,16 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="13"/>
       <c r="C6" s="2"/>
@@ -786,12 +822,16 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
       <c r="C7" s="2"/>
@@ -808,12 +848,16 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
@@ -830,12 +874,16 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
       <c r="C9" s="2"/>
@@ -852,12 +900,16 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="13"/>
       <c r="C10" s="2"/>
@@ -874,12 +926,16 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="13"/>
       <c r="C11" s="2"/>
@@ -896,12 +952,16 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="2"/>
@@ -918,12 +978,16 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="13"/>
       <c r="C13" s="2"/>
@@ -940,12 +1004,16 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="13"/>
       <c r="C14" s="2"/>
@@ -962,12 +1030,16 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
       <c r="C15" s="2"/>
@@ -984,12 +1056,16 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="13"/>
       <c r="C16" s="2"/>
@@ -1006,12 +1082,16 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="13"/>
       <c r="C17" s="2"/>
@@ -1028,12 +1108,16 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
       <c r="C18" s="2"/>
@@ -1050,12 +1134,16 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="13"/>
       <c r="C19" s="2"/>
@@ -1072,12 +1160,16 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="2"/>
@@ -1094,12 +1186,16 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="13"/>
       <c r="C21" s="2"/>
@@ -1116,12 +1212,16 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="2"/>
@@ -1138,12 +1238,16 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="13"/>
       <c r="C23" s="2"/>
@@ -1160,12 +1264,16 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="13"/>
       <c r="C24" s="2"/>
@@ -1182,12 +1290,16 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="13"/>
       <c r="C25" s="2"/>
@@ -1204,12 +1316,16 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="13"/>
       <c r="C26" s="2"/>
@@ -1226,12 +1342,16 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="13"/>
       <c r="C27" s="2"/>
@@ -1248,12 +1368,16 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="13"/>
       <c r="C28" s="2"/>
@@ -1270,12 +1394,16 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
-    </row>
-    <row r="29" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+    </row>
+    <row r="29" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>0</v>
       </c>
@@ -1315,15 +1443,31 @@
         <f>SUM(P$5:P28)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
+      <c r="Q29" s="9">
+        <f>SUM(Q$5:Q28)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="9">
+        <f>SUM(R$5:R28)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <f>SUM(S$5:S28)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
+        <f>SUM(T$5:T28)</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
     <mergeCell ref="A29:I29"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
